--- a/Tram moi/Linh kien 3.xlsx
+++ b/Tram moi/Linh kien 3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -310,6 +310,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,23 +338,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,13 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -723,7 +723,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -743,13 +743,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -843,27 +843,27 @@
         <v>32</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -871,81 +871,81 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -953,501 +953,501 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="9">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="14">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="9">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="14">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="14">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>7</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14">
-        <v>7</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="14">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14">
-        <v>7</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="14">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14">
-        <v>7</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="14">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14">
-        <v>7</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="14">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14">
-        <v>7</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="14">
-        <v>1</v>
-      </c>
-      <c r="D34" s="14">
-        <v>7</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="14">
-        <v>1</v>
-      </c>
-      <c r="D35" s="14">
-        <v>7</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="14">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14">
-        <v>7</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="14">
-        <v>1</v>
-      </c>
-      <c r="D37" s="14">
-        <v>7</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="14">
-        <v>1</v>
-      </c>
-      <c r="D38" s="14">
-        <v>7</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="14">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>7</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="10">
-        <v>2</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
         <v>8</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1455,156 +1455,156 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="10">
-        <v>2</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
         <v>8</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>8</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="6">
         <v>8</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="6">
         <v>4</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="6">
         <v>8</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="10">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
         <v>8</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>4</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
         <v>8</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="6">
         <v>6</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>6</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <v>8</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1624,416 +1624,749 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="13">
         <v>32</v>
       </c>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="C1" s="13">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <f>IF(C1&gt;=B1,0,B1-C1)</f>
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21">
-        <v>7</v>
-      </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E48" si="0">IF(C2&gt;=B2,0,B2-C2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="21">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
         <v>48</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="13">
         <v>65</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="C6" s="13">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="13">
         <v>39</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="C8" s="13">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="13">
         <v>16</v>
       </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="C9" s="13">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="21">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="21">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="13">
         <v>32</v>
       </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="C12" s="13">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="13">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="C13" s="13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="13">
         <v>48</v>
       </c>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="C14" s="13">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="13">
         <v>9</v>
       </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="C16" s="13"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="13">
         <v>71</v>
       </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="C17" s="13">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="13">
         <v>16</v>
       </c>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="C18" s="13">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="21">
-        <v>7</v>
-      </c>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B19" s="13">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21">
-        <v>7</v>
-      </c>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B20" s="13">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="21">
-        <v>7</v>
-      </c>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B21" s="13">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="21">
-        <v>7</v>
-      </c>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B23" s="13">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="13">
         <v>23</v>
       </c>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="13">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="13">
         <v>16</v>
       </c>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="C25" s="13">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="13">
         <v>16</v>
       </c>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="C27" s="13">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="21">
-        <v>7</v>
-      </c>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="13">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="21">
-        <v>7</v>
-      </c>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="B29" s="13">
+        <v>7</v>
+      </c>
+      <c r="C29" s="13">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="13">
         <v>53</v>
       </c>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="C31" s="13">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="21">
-        <v>7</v>
-      </c>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="B32" s="13">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="21">
-        <v>7</v>
-      </c>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B33" s="13">
+        <v>7</v>
+      </c>
+      <c r="C33" s="13">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="21">
-        <v>7</v>
-      </c>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="B34" s="13">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="21">
-        <v>7</v>
-      </c>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="B35" s="13">
+        <v>7</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="21">
-        <v>2</v>
-      </c>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="21">
-        <v>7</v>
-      </c>
-      <c r="C38" s="21"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="B38" s="13">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="21">
-        <v>7</v>
-      </c>
-      <c r="C39" s="21"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="B39" s="13">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="21">
-        <v>7</v>
-      </c>
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="B40" s="13">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="21">
-        <v>7</v>
-      </c>
-      <c r="C41" s="21"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="B41" s="13">
+        <v>7</v>
+      </c>
+      <c r="C41" s="13">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="13">
         <v>32</v>
       </c>
-      <c r="C42" s="21"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="C42" s="13">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="13">
         <v>48</v>
       </c>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="C43" s="13"/>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="13">
         <v>8</v>
       </c>
-      <c r="C45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="C45" s="13">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21">
-        <v>2</v>
-      </c>
-      <c r="C46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="B46" s="13">
+        <v>2</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="13">
         <v>32</v>
       </c>
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="C47" s="13"/>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="13">
         <v>8</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="13">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
